--- a/static/files/KPI/xuezhimin/KPI.xlsx
+++ b/static/files/KPI/xuezhimin/KPI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>员工季度绩效评估表</t>
   </si>
@@ -22,7 +22,7 @@
     <t>员工：</t>
   </si>
   <si>
-    <t>薛智敏</t>
+    <t>李璟</t>
   </si>
   <si>
     <t>入职日期：</t>
@@ -31,7 +31,7 @@
     <t>上级主管：</t>
   </si>
   <si>
-    <t>倪培军</t>
+    <t>华慧宁</t>
   </si>
   <si>
     <t>绩效周期：</t>
@@ -61,69 +61,52 @@
     <t>工作绩效</t>
   </si>
   <si>
-    <t>按时到立刻就爱上</t>
-  </si>
-  <si>
-    <t>熟练度附近收到了付</t>
-  </si>
-  <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>水电费水电费士大夫asdasdas 卡上打开时接电话奥</t>
-  </si>
-  <si>
-    <t>2水电费水电费士大夫似的水电费胜多负少</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>45%</t>
-  </si>
-  <si>
-    <t>d</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10%</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
     <t>总分</t>
   </si>
   <si>
     <t>绩效等级</t>
   </si>
   <si>
-    <t>S</t>
+    <t>B</t>
   </si>
   <si>
     <t>自我评价</t>
   </si>
   <si>
-    <t>哈哈哈哈阿拉山口简单了奥斯卡简单熟练度可骄傲是的卢卡斯和打蜡是可敬的asldkj爱上了会计师的浪费
- 水电费会计师的立方会计师的发了开始的飞机失联的开发机
-苏打绿分开就死定了客服解释道发</t>
-  </si>
-  <si>
     <t>主管总体评价</t>
   </si>
   <si>
-    <t xml:space="preserve">asda sd asd asd </t>
+    <t>哈哈哈</t>
   </si>
   <si>
     <t>部门负责人总体评价</t>
   </si>
   <si>
-    <t>思考的积分换是东方红速度快回复收到了符号是的福建省df&amp;amp;#39;是东方红是肯德基粉红色f是
-多看几家会更快的复合弓的复合弓的反馈国际化的fg
-的风格就肯定会疯狂过后的反光镜电话费感觉到法国和好
-的反馈及规划</t>
+    <t>sdfsdf</t>
   </si>
   <si>
     <t>被评估人签字确认评估结果：</t>
@@ -263,18 +246,12 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -541,77 +518,77 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="9" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="9" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="3">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="3">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="9" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="9" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="3">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="3">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="165" xfId="1">
@@ -922,8 +899,8 @@
   </sheetPr>
   <dimension ref="A1:AQ31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -940,14 +917,14 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="60.75" r="1" s="75" spans="1:43">
-      <c r="A1" s="62" t="n"/>
-      <c r="B1" s="62" t="n"/>
-      <c r="C1" s="62" t="n"/>
-      <c r="D1" s="62" t="n"/>
-      <c r="E1" s="62" t="n"/>
-      <c r="F1" s="62" t="n"/>
-      <c r="G1" s="62" t="n"/>
-      <c r="H1" s="62" t="n"/>
+      <c r="A1" s="54" t="n"/>
+      <c r="B1" s="54" t="n"/>
+      <c r="C1" s="54" t="n"/>
+      <c r="D1" s="54" t="n"/>
+      <c r="E1" s="54" t="n"/>
+      <c r="F1" s="54" t="n"/>
+      <c r="G1" s="54" t="n"/>
+      <c r="H1" s="54" t="n"/>
     </row>
     <row hidden="1" r="2" s="75" spans="1:43">
       <c r="A2" s="29" t="n"/>
@@ -1040,16 +1017,16 @@
       <c r="AQ3" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="4" s="75" spans="1:43">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="65" t="n"/>
-      <c r="C4" s="65" t="n"/>
-      <c r="D4" s="65" t="n"/>
-      <c r="E4" s="65" t="n"/>
-      <c r="F4" s="65" t="n"/>
-      <c r="G4" s="65" t="n"/>
-      <c r="H4" s="66" t="n"/>
+      <c r="B4" s="63" t="n"/>
+      <c r="C4" s="63" t="n"/>
+      <c r="D4" s="63" t="n"/>
+      <c r="E4" s="63" t="n"/>
+      <c r="F4" s="63" t="n"/>
+      <c r="G4" s="63" t="n"/>
+      <c r="H4" s="64" t="n"/>
       <c r="I4" s="36" t="n"/>
       <c r="J4" s="3" t="n"/>
       <c r="K4" s="3" t="n"/>
@@ -1132,7 +1109,7 @@
       <c r="AQ5" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="6" s="75" spans="1:43">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="41" t="s">
@@ -1144,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="76" t="n">
-        <v>42142</v>
+        <v>42416</v>
       </c>
       <c r="G6" s="45" t="n"/>
       <c r="H6" s="14" t="n"/>
@@ -1185,15 +1162,15 @@
       <c r="AQ6" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="7" s="75" spans="1:43">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="42" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="15" t="n"/>
-      <c r="D7" s="71" t="n"/>
-      <c r="E7" s="71" t="s">
+      <c r="D7" s="53" t="n"/>
+      <c r="E7" s="53" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="43" t="s">
@@ -1283,24 +1260,24 @@
       <c r="AQ8" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="52.5" r="9" s="75" spans="1:43">
-      <c r="A9" s="64" t="n"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="74" t="n"/>
+      <c r="B9" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="50" t="n"/>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="74" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="5" t="n"/>
@@ -1340,27 +1317,27 @@
       <c r="AQ9" s="29" t="n"/>
     </row>
     <row customHeight="1" ht="36" r="10" s="75" spans="1:43">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="53" t="n"/>
-      <c r="E10" s="56" t="s">
+      <c r="D10" s="66" t="n"/>
+      <c r="E10" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="67" t="n">
-        <v>97</v>
-      </c>
-      <c r="G10" s="63" t="n">
+      <c r="F10" s="73" t="n">
         <v>80</v>
       </c>
-      <c r="H10" s="59" t="n">
-        <v>97</v>
+      <c r="G10" s="59" t="n">
+        <v>90</v>
+      </c>
+      <c r="H10" s="55" t="n">
+        <v>91</v>
       </c>
       <c r="I10" s="11" t="n"/>
       <c r="J10" s="38" t="n"/>
@@ -1399,228 +1376,238 @@
       <c r="AQ10" s="38" t="n"/>
     </row>
     <row customHeight="1" ht="30.75" r="11" s="75" spans="1:43">
-      <c r="A11" s="64" t="n"/>
-      <c r="B11" s="55" t="n"/>
-      <c r="C11" s="72" t="n"/>
-      <c r="D11" s="72" t="n"/>
-      <c r="E11" s="56" t="n"/>
-      <c r="F11" s="67" t="n"/>
-      <c r="G11" s="63" t="n"/>
-      <c r="H11" s="59" t="n"/>
+      <c r="A11" s="74" t="n"/>
+      <c r="B11" s="69" t="n"/>
+      <c r="C11" s="67" t="n"/>
+      <c r="D11" s="67" t="n"/>
+      <c r="E11" s="57" t="n"/>
+      <c r="F11" s="73" t="n"/>
+      <c r="G11" s="59" t="n"/>
+      <c r="H11" s="55" t="n"/>
       <c r="I11" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="43.5" r="12" s="75" spans="1:43">
-      <c r="A12" s="64" t="n"/>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="74" t="n"/>
+      <c r="B12" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="66" t="n"/>
+      <c r="E12" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="58" t="n">
+        <v>80</v>
+      </c>
+      <c r="G12" s="61" t="n">
+        <v>90</v>
+      </c>
+      <c r="H12" s="58" t="n">
+        <v>88</v>
+      </c>
+      <c r="I12" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="13" s="75" spans="1:43">
+      <c r="A13" s="74" t="n"/>
+      <c r="B13" s="56" t="n"/>
+      <c r="C13" s="67" t="n"/>
+      <c r="D13" s="67" t="n"/>
+      <c r="E13" s="57" t="n"/>
+      <c r="F13" s="58" t="n"/>
+      <c r="G13" s="61" t="n"/>
+      <c r="H13" s="58" t="n"/>
+      <c r="I13" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="43.5" r="14" s="75" spans="1:43">
+      <c r="A14" s="74" t="n"/>
+      <c r="B14" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="53" t="n"/>
-      <c r="E12" s="56" t="s">
+      <c r="C14" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="66" t="n"/>
+      <c r="E14" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="58" t="n">
+        <v>80</v>
+      </c>
+      <c r="G14" s="61" t="n">
+        <v>90</v>
+      </c>
+      <c r="H14" s="58" t="n">
+        <v>77</v>
+      </c>
+      <c r="I14" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="15" s="75" spans="1:43">
+      <c r="A15" s="74" t="n"/>
+      <c r="B15" s="56" t="n"/>
+      <c r="C15" s="67" t="n"/>
+      <c r="D15" s="67" t="n"/>
+      <c r="E15" s="57" t="n"/>
+      <c r="F15" s="58" t="n"/>
+      <c r="G15" s="61" t="n"/>
+      <c r="H15" s="58" t="n"/>
+      <c r="I15" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="43.5" r="16" s="75" spans="1:43">
+      <c r="A16" s="74" t="n"/>
+      <c r="B16" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="66" t="n"/>
+      <c r="E16" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="57" t="n">
-        <v>97</v>
-      </c>
-      <c r="G12" s="58" t="n">
+      <c r="F16" s="58" t="n">
         <v>80</v>
       </c>
-      <c r="H12" s="57" t="n">
-        <v>97</v>
-      </c>
-      <c r="I12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="13" s="75" spans="1:43">
-      <c r="A13" s="64" t="n"/>
-      <c r="B13" s="60" t="n"/>
-      <c r="C13" s="72" t="n"/>
-      <c r="D13" s="72" t="n"/>
-      <c r="E13" s="56" t="n"/>
-      <c r="F13" s="57" t="n"/>
-      <c r="G13" s="58" t="n"/>
-      <c r="H13" s="57" t="n"/>
-      <c r="I13" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="43.5" r="14" s="75" spans="1:43">
-      <c r="A14" s="64" t="n"/>
-      <c r="B14" s="60" t="s">
+      <c r="G16" s="61" t="n">
+        <v>90</v>
+      </c>
+      <c r="H16" s="58" t="n">
+        <v>87</v>
+      </c>
+      <c r="I16" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="43.5" r="17" s="75" spans="1:43">
+      <c r="A17" s="74" t="n"/>
+      <c r="B17" s="56" t="n"/>
+      <c r="C17" s="67" t="n"/>
+      <c r="D17" s="67" t="n"/>
+      <c r="E17" s="57" t="n"/>
+      <c r="F17" s="58" t="n"/>
+      <c r="G17" s="61" t="n"/>
+      <c r="H17" s="58" t="n"/>
+      <c r="I17" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="43.5" r="18" s="75" spans="1:43">
+      <c r="A18" s="74" t="n"/>
+      <c r="B18" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C18" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="66" t="n"/>
+      <c r="E18" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="53" t="n"/>
-      <c r="E14" s="56" t="s">
+      <c r="F18" s="58" t="n">
+        <v>80</v>
+      </c>
+      <c r="G18" s="61" t="n">
+        <v>90</v>
+      </c>
+      <c r="H18" s="58" t="n">
+        <v>89</v>
+      </c>
+      <c r="I18" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="19" s="75" spans="1:43">
+      <c r="A19" s="74" t="n"/>
+      <c r="B19" s="56" t="n"/>
+      <c r="C19" s="67" t="n"/>
+      <c r="D19" s="67" t="n"/>
+      <c r="E19" s="57" t="n"/>
+      <c r="F19" s="58" t="n"/>
+      <c r="G19" s="61" t="n"/>
+      <c r="H19" s="58" t="n"/>
+      <c r="I19" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="36.75" r="20" s="75" spans="1:43">
+      <c r="A20" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="57" t="n">
-        <v>97</v>
-      </c>
-      <c r="G14" s="58" t="n">
-        <v>80</v>
-      </c>
-      <c r="H14" s="57" t="n">
-        <v>97</v>
-      </c>
-      <c r="I14" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="15" s="75" spans="1:43">
-      <c r="A15" s="64" t="n"/>
-      <c r="B15" s="60" t="n"/>
-      <c r="C15" s="72" t="n"/>
-      <c r="D15" s="72" t="n"/>
-      <c r="E15" s="56" t="n"/>
-      <c r="F15" s="57" t="n"/>
-      <c r="G15" s="58" t="n"/>
-      <c r="H15" s="57" t="n"/>
-      <c r="I15" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="43.5" r="16" s="75" spans="1:43">
-      <c r="A16" s="64" t="n"/>
-      <c r="B16" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="53" t="n"/>
-      <c r="E16" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="57" t="n">
-        <v>97</v>
-      </c>
-      <c r="G16" s="58" t="n">
-        <v>80</v>
-      </c>
-      <c r="H16" s="57" t="n">
-        <v>97</v>
-      </c>
-      <c r="I16" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="43.5" r="17" s="75" spans="1:43">
-      <c r="A17" s="64" t="n"/>
-      <c r="B17" s="60" t="n"/>
-      <c r="C17" s="72" t="n"/>
-      <c r="D17" s="72" t="n"/>
-      <c r="E17" s="56" t="n"/>
-      <c r="F17" s="57" t="n"/>
-      <c r="G17" s="58" t="n"/>
-      <c r="H17" s="57" t="n"/>
-      <c r="I17" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="43.5" r="18" s="75" spans="1:43">
-      <c r="A18" s="64" t="n"/>
-      <c r="B18" s="60" t="n"/>
-      <c r="C18" s="53" t="n"/>
-      <c r="D18" s="53" t="n"/>
-      <c r="E18" s="56" t="n"/>
-      <c r="F18" s="57" t="n"/>
-      <c r="G18" s="58" t="n"/>
-      <c r="H18" s="57" t="n"/>
-      <c r="I18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="19" s="75" spans="1:43">
-      <c r="A19" s="64" t="n"/>
-      <c r="B19" s="60" t="n"/>
-      <c r="C19" s="72" t="n"/>
-      <c r="D19" s="72" t="n"/>
-      <c r="E19" s="56" t="n"/>
-      <c r="F19" s="57" t="n"/>
-      <c r="G19" s="58" t="n"/>
-      <c r="H19" s="57" t="n"/>
-      <c r="I19" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="36.75" r="20" s="75" spans="1:43">
-      <c r="A20" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="59" t="n"/>
-      <c r="C20" s="59" t="n"/>
-      <c r="D20" s="59" t="n"/>
+      <c r="B20" s="55" t="n"/>
+      <c r="C20" s="55" t="n"/>
+      <c r="D20" s="55" t="n"/>
       <c r="E20" s="44" t="n"/>
       <c r="F20" s="44" t="n"/>
-      <c r="G20" s="67" t="n"/>
-      <c r="H20" s="67" t="n">
-        <v>97</v>
+      <c r="G20" s="73" t="n"/>
+      <c r="H20" s="73" t="n">
+        <v>87.09999999999999</v>
       </c>
       <c r="I20" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="36.75" r="21" s="75" spans="1:43">
-      <c r="A21" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="59" t="n"/>
-      <c r="C21" s="59" t="n"/>
-      <c r="D21" s="59" t="n"/>
+      <c r="A21" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="55" t="n"/>
+      <c r="C21" s="55" t="n"/>
+      <c r="D21" s="55" t="n"/>
       <c r="E21" s="44" t="n"/>
       <c r="F21" s="44" t="n"/>
-      <c r="G21" s="67" t="n"/>
-      <c r="H21" s="52" t="s">
+      <c r="G21" s="73" t="n"/>
+      <c r="H21" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="150" r="22" s="75" spans="1:43">
+      <c r="A22" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="69" t="s"/>
+      <c r="C22" s="70" t="n"/>
+      <c r="D22" s="70" t="n"/>
+      <c r="E22" s="70" t="n"/>
+      <c r="F22" s="70" t="n"/>
+      <c r="G22" s="70" t="n"/>
+      <c r="H22" s="70" t="n"/>
+      <c r="I22" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="150" r="23" s="75" spans="1:43">
+      <c r="A23" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="150" r="22" s="75" spans="1:43">
-      <c r="A22" s="64" t="s">
+      <c r="C23" s="69" t="n"/>
+      <c r="D23" s="69" t="n"/>
+      <c r="E23" s="69" t="n"/>
+      <c r="F23" s="69" t="n"/>
+      <c r="G23" s="69" t="n"/>
+      <c r="H23" s="69" t="n"/>
+      <c r="I23" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="150" r="24" s="75" spans="1:43">
+      <c r="A24" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B24" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="74" t="n"/>
-      <c r="D22" s="74" t="n"/>
-      <c r="E22" s="74" t="n"/>
-      <c r="F22" s="74" t="n"/>
-      <c r="G22" s="74" t="n"/>
-      <c r="H22" s="74" t="n"/>
-      <c r="I22" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="150" r="23" s="75" spans="1:43">
-      <c r="A23" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="55" t="n"/>
-      <c r="D23" s="55" t="n"/>
-      <c r="E23" s="55" t="n"/>
-      <c r="F23" s="55" t="n"/>
-      <c r="G23" s="55" t="n"/>
-      <c r="H23" s="55" t="n"/>
-      <c r="I23" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="150" r="24" s="75" spans="1:43">
-      <c r="A24" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="55" t="n"/>
-      <c r="D24" s="55" t="n"/>
-      <c r="E24" s="55" t="n"/>
-      <c r="F24" s="55" t="n"/>
-      <c r="G24" s="55" t="n"/>
-      <c r="H24" s="55" t="n"/>
+      <c r="C24" s="69" t="n"/>
+      <c r="D24" s="69" t="n"/>
+      <c r="E24" s="69" t="n"/>
+      <c r="F24" s="69" t="n"/>
+      <c r="G24" s="69" t="n"/>
+      <c r="H24" s="69" t="n"/>
       <c r="I24" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="10.5" r="25" s="75" spans="1:43">
-      <c r="A25" s="64" t="n"/>
-      <c r="B25" s="55" t="n"/>
-      <c r="C25" s="55" t="n"/>
-      <c r="D25" s="55" t="n"/>
-      <c r="E25" s="55" t="n"/>
-      <c r="F25" s="55" t="n"/>
-      <c r="G25" s="55" t="n"/>
-      <c r="H25" s="55" t="n"/>
+      <c r="A25" s="74" t="n"/>
+      <c r="B25" s="69" t="n"/>
+      <c r="C25" s="69" t="n"/>
+      <c r="D25" s="69" t="n"/>
+      <c r="E25" s="69" t="n"/>
+      <c r="F25" s="69" t="n"/>
+      <c r="G25" s="69" t="n"/>
+      <c r="H25" s="69" t="n"/>
       <c r="I25" s="11" t="n"/>
     </row>
     <row r="26" spans="1:43">
-      <c r="A26" s="61" t="n"/>
+      <c r="A26" s="68" t="n"/>
       <c r="B26" s="2" t="n"/>
       <c r="C26" s="2" t="n"/>
       <c r="D26" s="6" t="n"/>
@@ -1630,10 +1617,10 @@
       <c r="H26" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="27" s="75" spans="1:43">
-      <c r="A27" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="54" t="n"/>
+      <c r="A27" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="71" t="n"/>
       <c r="C27" s="35" t="n"/>
       <c r="D27" s="6" t="n"/>
       <c r="E27" s="7" t="n"/>
@@ -1642,7 +1629,7 @@
       <c r="H27" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="28" s="75" spans="1:43">
-      <c r="A28" s="61" t="n"/>
+      <c r="A28" s="68" t="n"/>
       <c r="B28" s="2" t="n"/>
       <c r="C28" s="2" t="n"/>
       <c r="D28" s="18" t="n"/>
@@ -1652,10 +1639,10 @@
       <c r="H28" s="20" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="29" s="75" spans="1:43">
-      <c r="A29" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="61" t="n"/>
+      <c r="A29" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="68" t="n"/>
       <c r="C29" s="40" t="n"/>
       <c r="D29" s="10" t="n"/>
       <c r="E29" s="22" t="n"/>
@@ -1664,9 +1651,9 @@
       <c r="H29" s="23" t="n"/>
     </row>
     <row r="30" spans="1:43">
-      <c r="A30" s="61" t="n"/>
-      <c r="B30" s="61" t="n"/>
-      <c r="C30" s="61" t="n"/>
+      <c r="A30" s="68" t="n"/>
+      <c r="B30" s="68" t="n"/>
+      <c r="C30" s="68" t="n"/>
       <c r="D30" s="25" t="n"/>
       <c r="E30" s="26" t="n"/>
       <c r="F30" s="27" t="n"/>
@@ -1674,10 +1661,10 @@
       <c r="H30" s="27" t="n"/>
     </row>
     <row customHeight="1" ht="20.25" r="31" s="75" spans="1:43">
-      <c r="A31" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="61" t="n"/>
+      <c r="A31" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="68" t="n"/>
       <c r="C31" s="40" t="n"/>
       <c r="D31" s="10" t="n"/>
       <c r="E31" s="22" t="n"/>
@@ -1687,6 +1674,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="B12:B13"/>
@@ -1702,32 +1714,7 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="C12:D13"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B23:H23"/>
     <mergeCell ref="C14:D15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
   <pageSetup fitToHeight="0" orientation="portrait" scale="64"/>

--- a/static/files/KPI/xuezhimin/KPI.xlsx
+++ b/static/files/KPI/xuezhimin/KPI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>员工季度绩效评估表</t>
   </si>
@@ -22,7 +22,7 @@
     <t>员工：</t>
   </si>
   <si>
-    <t>李璟</t>
+    <t>薛智敏</t>
   </si>
   <si>
     <t>入职日期：</t>
@@ -31,9 +31,6 @@
     <t>上级主管：</t>
   </si>
   <si>
-    <t>华慧宁</t>
-  </si>
-  <si>
     <t>绩效周期：</t>
   </si>
   <si>
@@ -61,33 +58,21 @@
     <t>工作绩效</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>30%</t>
+    <t>123</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>234</t>
   </si>
   <si>
     <t>总分</t>
   </si>
   <si>
+    <t>最终评分</t>
+  </si>
+  <si>
     <t>绩效等级</t>
   </si>
   <si>
@@ -100,13 +85,7 @@
     <t>主管总体评价</t>
   </si>
   <si>
-    <t>哈哈哈</t>
-  </si>
-  <si>
     <t>部门负责人总体评价</t>
-  </si>
-  <si>
-    <t>sdfsdf</t>
   </si>
   <si>
     <t>被评估人签字确认评估结果：</t>
@@ -368,7 +347,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -527,30 +506,72 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="9" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="3">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="9" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="9" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="3">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="3">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="9" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -563,31 +584,7 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="3">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="3">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="9" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -897,10 +894,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ31"/>
+  <dimension ref="A1:AQ32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -916,17 +913,17 @@
     <col customWidth="1" max="16384" min="10" style="1" width="8.875"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="60.75" r="1" s="75" spans="1:43">
-      <c r="A1" s="54" t="n"/>
-      <c r="B1" s="54" t="n"/>
-      <c r="C1" s="54" t="n"/>
-      <c r="D1" s="54" t="n"/>
-      <c r="E1" s="54" t="n"/>
-      <c r="F1" s="54" t="n"/>
-      <c r="G1" s="54" t="n"/>
-      <c r="H1" s="54" t="n"/>
-    </row>
-    <row hidden="1" r="2" s="75" spans="1:43">
+    <row customHeight="1" ht="60.75" r="1" s="81" spans="1:43">
+      <c r="A1" s="73" t="n"/>
+      <c r="B1" s="73" t="n"/>
+      <c r="C1" s="73" t="n"/>
+      <c r="D1" s="73" t="n"/>
+      <c r="E1" s="73" t="n"/>
+      <c r="F1" s="73" t="n"/>
+      <c r="G1" s="73" t="n"/>
+      <c r="H1" s="73" t="n"/>
+    </row>
+    <row hidden="1" r="2" s="81" spans="1:43">
       <c r="A2" s="29" t="n"/>
       <c r="B2" s="29" t="n"/>
       <c r="C2" s="29" t="n"/>
@@ -971,7 +968,7 @@
       <c r="AP2" s="29" t="n"/>
       <c r="AQ2" s="29" t="n"/>
     </row>
-    <row customHeight="1" ht="3" r="3" s="75" spans="1:43">
+    <row customHeight="1" ht="3" r="3" s="81" spans="1:43">
       <c r="A3" s="29" t="n"/>
       <c r="B3" s="29" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1016,17 +1013,17 @@
       <c r="AP3" s="29" t="n"/>
       <c r="AQ3" s="29" t="n"/>
     </row>
-    <row customHeight="1" ht="47.25" r="4" s="75" spans="1:43">
-      <c r="A4" s="62" t="s">
+    <row customHeight="1" ht="47.25" r="4" s="81" spans="1:43">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="63" t="n"/>
-      <c r="C4" s="63" t="n"/>
-      <c r="D4" s="63" t="n"/>
-      <c r="E4" s="63" t="n"/>
-      <c r="F4" s="63" t="n"/>
-      <c r="G4" s="63" t="n"/>
-      <c r="H4" s="64" t="n"/>
+      <c r="B4" s="77" t="n"/>
+      <c r="C4" s="77" t="n"/>
+      <c r="D4" s="77" t="n"/>
+      <c r="E4" s="77" t="n"/>
+      <c r="F4" s="77" t="n"/>
+      <c r="G4" s="77" t="n"/>
+      <c r="H4" s="78" t="n"/>
       <c r="I4" s="36" t="n"/>
       <c r="J4" s="3" t="n"/>
       <c r="K4" s="3" t="n"/>
@@ -1108,7 +1105,7 @@
       <c r="AP5" s="3" t="n"/>
       <c r="AQ5" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="27" r="6" s="75" spans="1:43">
+    <row customHeight="1" ht="27" r="6" s="81" spans="1:43">
       <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
@@ -1120,8 +1117,8 @@
       <c r="E6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="76" t="n">
-        <v>42416</v>
+      <c r="F6" s="82" t="n">
+        <v>42142</v>
       </c>
       <c r="G6" s="45" t="n"/>
       <c r="H6" s="14" t="n"/>
@@ -1161,20 +1158,20 @@
       <c r="AP6" s="3" t="n"/>
       <c r="AQ6" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="7" s="75" spans="1:43">
+    <row customHeight="1" ht="30" r="7" s="81" spans="1:43">
       <c r="A7" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="15" t="n"/>
       <c r="D7" s="53" t="n"/>
       <c r="E7" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="43" t="s">
         <v>6</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>7</v>
       </c>
       <c r="G7" s="43" t="n"/>
       <c r="H7" s="16" t="n"/>
@@ -1214,7 +1211,7 @@
       <c r="AP7" s="3" t="n"/>
       <c r="AQ7" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="8" s="75" spans="1:43">
+    <row customHeight="1" ht="12" r="8" s="81" spans="1:43">
       <c r="A8" s="37" t="n"/>
       <c r="B8" s="39" t="n"/>
       <c r="C8" s="39" t="n"/>
@@ -1259,26 +1256,26 @@
       <c r="AP8" s="29" t="n"/>
       <c r="AQ8" s="29" t="n"/>
     </row>
-    <row customHeight="1" ht="52.5" r="9" s="75" spans="1:43">
-      <c r="A9" s="74" t="n"/>
-      <c r="B9" s="72" t="s">
+    <row customHeight="1" ht="52.5" r="9" s="81" spans="1:43">
+      <c r="A9" s="75" t="n"/>
+      <c r="B9" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="D9" s="50" t="n"/>
+      <c r="E9" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="50" t="n"/>
-      <c r="E9" s="72" t="s">
+      <c r="F9" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="G9" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="H9" s="75" t="s">
         <v>12</v>
-      </c>
-      <c r="H9" s="74" t="s">
-        <v>13</v>
       </c>
       <c r="I9" s="5" t="n"/>
       <c r="J9" s="29" t="n"/>
@@ -1316,28 +1313,28 @@
       <c r="AP9" s="29" t="n"/>
       <c r="AQ9" s="29" t="n"/>
     </row>
-    <row customHeight="1" ht="36" r="10" s="75" spans="1:43">
-      <c r="A10" s="74" t="s">
+    <row customHeight="1" ht="36" r="10" s="81" spans="1:43">
+      <c r="A10" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="C10" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="70" t="n"/>
+      <c r="E10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="66" t="n"/>
-      <c r="E10" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="73" t="n">
-        <v>80</v>
-      </c>
-      <c r="G10" s="59" t="n">
-        <v>90</v>
-      </c>
-      <c r="H10" s="55" t="n">
-        <v>91</v>
+      <c r="F10" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="66" t="n">
+        <v>0</v>
       </c>
       <c r="I10" s="11" t="n"/>
       <c r="J10" s="38" t="n"/>
@@ -1375,203 +1372,171 @@
       <c r="AP10" s="38" t="n"/>
       <c r="AQ10" s="38" t="n"/>
     </row>
-    <row customHeight="1" ht="30.75" r="11" s="75" spans="1:43">
-      <c r="A11" s="74" t="n"/>
-      <c r="B11" s="69" t="n"/>
-      <c r="C11" s="67" t="n"/>
-      <c r="D11" s="67" t="n"/>
-      <c r="E11" s="57" t="n"/>
-      <c r="F11" s="73" t="n"/>
-      <c r="G11" s="59" t="n"/>
-      <c r="H11" s="55" t="n"/>
+    <row customHeight="1" ht="30.75" r="11" s="81" spans="1:43">
+      <c r="A11" s="75" t="n"/>
+      <c r="B11" s="62" t="n"/>
+      <c r="C11" s="71" t="n"/>
+      <c r="D11" s="71" t="n"/>
+      <c r="E11" s="63" t="n"/>
+      <c r="F11" s="79" t="n"/>
+      <c r="G11" s="74" t="n"/>
+      <c r="H11" s="66" t="n"/>
       <c r="I11" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="43.5" r="12" s="75" spans="1:43">
-      <c r="A12" s="74" t="n"/>
-      <c r="B12" s="56" t="s">
+    <row customHeight="1" ht="43.5" r="12" s="81" spans="1:43">
+      <c r="A12" s="75" t="n"/>
+      <c r="B12" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="70" t="n"/>
+      <c r="E12" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="13" s="81" spans="1:43">
+      <c r="A13" s="75" t="n"/>
+      <c r="B13" s="67" t="n"/>
+      <c r="C13" s="71" t="n"/>
+      <c r="D13" s="71" t="n"/>
+      <c r="E13" s="63" t="n"/>
+      <c r="F13" s="64" t="n"/>
+      <c r="G13" s="65" t="n"/>
+      <c r="H13" s="64" t="n"/>
+      <c r="I13" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="43.5" r="14" s="81" spans="1:43">
+      <c r="A14" s="75" t="n"/>
+      <c r="B14" s="67" t="n"/>
+      <c r="C14" s="70" t="n"/>
+      <c r="D14" s="70" t="n"/>
+      <c r="E14" s="63" t="n"/>
+      <c r="F14" s="64" t="n"/>
+      <c r="G14" s="65" t="n"/>
+      <c r="H14" s="64" t="n"/>
+      <c r="I14" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="15" s="81" spans="1:43">
+      <c r="A15" s="75" t="n"/>
+      <c r="B15" s="67" t="n"/>
+      <c r="C15" s="71" t="n"/>
+      <c r="D15" s="71" t="n"/>
+      <c r="E15" s="63" t="n"/>
+      <c r="F15" s="64" t="n"/>
+      <c r="G15" s="65" t="n"/>
+      <c r="H15" s="64" t="n"/>
+      <c r="I15" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="43.5" r="16" s="81" spans="1:43">
+      <c r="A16" s="75" t="n"/>
+      <c r="B16" s="67" t="n"/>
+      <c r="C16" s="70" t="n"/>
+      <c r="D16" s="70" t="n"/>
+      <c r="E16" s="63" t="n"/>
+      <c r="F16" s="64" t="n"/>
+      <c r="G16" s="65" t="n"/>
+      <c r="H16" s="64" t="n"/>
+      <c r="I16" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="43.5" r="17" s="81" spans="1:43">
+      <c r="A17" s="75" t="n"/>
+      <c r="B17" s="67" t="n"/>
+      <c r="C17" s="71" t="n"/>
+      <c r="D17" s="71" t="n"/>
+      <c r="E17" s="63" t="n"/>
+      <c r="F17" s="64" t="n"/>
+      <c r="G17" s="65" t="n"/>
+      <c r="H17" s="64" t="n"/>
+      <c r="I17" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="43.5" r="18" s="81" spans="1:43">
+      <c r="A18" s="75" t="n"/>
+      <c r="B18" s="67" t="n"/>
+      <c r="C18" s="70" t="n"/>
+      <c r="D18" s="70" t="n"/>
+      <c r="E18" s="63" t="n"/>
+      <c r="F18" s="64" t="n"/>
+      <c r="G18" s="65" t="n"/>
+      <c r="H18" s="64" t="n"/>
+      <c r="I18" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="19" s="81" spans="1:43">
+      <c r="A19" s="75" t="n"/>
+      <c r="B19" s="67" t="n"/>
+      <c r="C19" s="71" t="n"/>
+      <c r="D19" s="71" t="n"/>
+      <c r="E19" s="63" t="n"/>
+      <c r="F19" s="64" t="n"/>
+      <c r="G19" s="65" t="n"/>
+      <c r="H19" s="64" t="n"/>
+      <c r="I19" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="20" s="81" spans="1:43">
+      <c r="A20" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="67" t="n"/>
+      <c r="C20" s="71" t="n"/>
+      <c r="D20" s="71" t="n"/>
+      <c r="E20" s="63" t="n"/>
+      <c r="F20" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="36.75" r="21" s="81" spans="1:43">
+      <c r="A21" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="66" t="n"/>
-      <c r="E12" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="58" t="n">
-        <v>80</v>
-      </c>
-      <c r="G12" s="61" t="n">
-        <v>90</v>
-      </c>
-      <c r="H12" s="58" t="n">
-        <v>88</v>
-      </c>
-      <c r="I12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="13" s="75" spans="1:43">
-      <c r="A13" s="74" t="n"/>
-      <c r="B13" s="56" t="n"/>
-      <c r="C13" s="67" t="n"/>
-      <c r="D13" s="67" t="n"/>
-      <c r="E13" s="57" t="n"/>
-      <c r="F13" s="58" t="n"/>
-      <c r="G13" s="61" t="n"/>
-      <c r="H13" s="58" t="n"/>
-      <c r="I13" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="43.5" r="14" s="75" spans="1:43">
-      <c r="A14" s="74" t="n"/>
-      <c r="B14" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="66" t="n"/>
-      <c r="E14" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="58" t="n">
-        <v>80</v>
-      </c>
-      <c r="G14" s="61" t="n">
-        <v>90</v>
-      </c>
-      <c r="H14" s="58" t="n">
-        <v>77</v>
-      </c>
-      <c r="I14" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="15" s="75" spans="1:43">
-      <c r="A15" s="74" t="n"/>
-      <c r="B15" s="56" t="n"/>
-      <c r="C15" s="67" t="n"/>
-      <c r="D15" s="67" t="n"/>
-      <c r="E15" s="57" t="n"/>
-      <c r="F15" s="58" t="n"/>
-      <c r="G15" s="61" t="n"/>
-      <c r="H15" s="58" t="n"/>
-      <c r="I15" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="43.5" r="16" s="75" spans="1:43">
-      <c r="A16" s="74" t="n"/>
-      <c r="B16" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="66" t="n"/>
-      <c r="E16" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="58" t="n">
-        <v>80</v>
-      </c>
-      <c r="G16" s="61" t="n">
-        <v>90</v>
-      </c>
-      <c r="H16" s="58" t="n">
-        <v>87</v>
-      </c>
-      <c r="I16" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="43.5" r="17" s="75" spans="1:43">
-      <c r="A17" s="74" t="n"/>
-      <c r="B17" s="56" t="n"/>
-      <c r="C17" s="67" t="n"/>
-      <c r="D17" s="67" t="n"/>
-      <c r="E17" s="57" t="n"/>
-      <c r="F17" s="58" t="n"/>
-      <c r="G17" s="61" t="n"/>
-      <c r="H17" s="58" t="n"/>
-      <c r="I17" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="43.5" r="18" s="75" spans="1:43">
-      <c r="A18" s="74" t="n"/>
-      <c r="B18" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="66" t="n"/>
-      <c r="E18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="58" t="n">
-        <v>80</v>
-      </c>
-      <c r="G18" s="61" t="n">
-        <v>90</v>
-      </c>
-      <c r="H18" s="58" t="n">
-        <v>89</v>
-      </c>
-      <c r="I18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="19" s="75" spans="1:43">
-      <c r="A19" s="74" t="n"/>
-      <c r="B19" s="56" t="n"/>
-      <c r="C19" s="67" t="n"/>
-      <c r="D19" s="67" t="n"/>
-      <c r="E19" s="57" t="n"/>
-      <c r="F19" s="58" t="n"/>
-      <c r="G19" s="61" t="n"/>
-      <c r="H19" s="58" t="n"/>
-      <c r="I19" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="36.75" r="20" s="75" spans="1:43">
-      <c r="A20" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="55" t="n"/>
-      <c r="C20" s="55" t="n"/>
-      <c r="D20" s="55" t="n"/>
-      <c r="E20" s="44" t="n"/>
-      <c r="F20" s="44" t="n"/>
-      <c r="G20" s="73" t="n"/>
-      <c r="H20" s="73" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="I20" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="36.75" r="21" s="75" spans="1:43">
-      <c r="A21" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="55" t="n"/>
-      <c r="C21" s="55" t="n"/>
-      <c r="D21" s="55" t="n"/>
+      <c r="B21" s="66" t="n"/>
+      <c r="C21" s="66" t="n"/>
+      <c r="D21" s="66" t="n"/>
       <c r="E21" s="44" t="n"/>
       <c r="F21" s="44" t="n"/>
-      <c r="G21" s="73" t="n"/>
-      <c r="H21" s="73" t="s">
-        <v>25</v>
+      <c r="G21" s="79" t="n"/>
+      <c r="H21" s="79" t="n">
+        <v>0</v>
       </c>
       <c r="I21" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="150" r="22" s="75" spans="1:43">
-      <c r="A22" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="69" t="s"/>
-      <c r="C22" s="70" t="n"/>
-      <c r="D22" s="70" t="n"/>
-      <c r="E22" s="70" t="n"/>
-      <c r="F22" s="70" t="n"/>
-      <c r="G22" s="70" t="n"/>
-      <c r="H22" s="70" t="n"/>
+    <row customHeight="1" ht="36.75" r="22" s="81" spans="1:43">
+      <c r="A22" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="66" t="n"/>
+      <c r="C22" s="66" t="n"/>
+      <c r="D22" s="66" t="n"/>
+      <c r="E22" s="44" t="n"/>
+      <c r="F22" s="44" t="n"/>
+      <c r="G22" s="79" t="n"/>
+      <c r="H22" s="79" t="s">
+        <v>20</v>
+      </c>
       <c r="I22" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="150" r="23" s="75" spans="1:43">
-      <c r="A23" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="69" t="s">
-        <v>28</v>
-      </c>
+    <row customHeight="1" ht="150" r="23" s="81" spans="1:43">
+      <c r="A23" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="62" t="s"/>
       <c r="C23" s="69" t="n"/>
       <c r="D23" s="69" t="n"/>
       <c r="E23" s="69" t="n"/>
@@ -1580,125 +1545,111 @@
       <c r="H23" s="69" t="n"/>
       <c r="I23" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="150" r="24" s="75" spans="1:43">
-      <c r="A24" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="69" t="n"/>
-      <c r="D24" s="69" t="n"/>
-      <c r="E24" s="69" t="n"/>
-      <c r="F24" s="69" t="n"/>
-      <c r="G24" s="69" t="n"/>
-      <c r="H24" s="69" t="n"/>
+    <row customHeight="1" ht="150" r="24" s="81" spans="1:43">
+      <c r="A24" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="62" t="s"/>
+      <c r="C24" s="62" t="n"/>
+      <c r="D24" s="62" t="n"/>
+      <c r="E24" s="62" t="n"/>
+      <c r="F24" s="62" t="n"/>
+      <c r="G24" s="62" t="n"/>
+      <c r="H24" s="62" t="n"/>
       <c r="I24" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="10.5" r="25" s="75" spans="1:43">
-      <c r="A25" s="74" t="n"/>
-      <c r="B25" s="69" t="n"/>
-      <c r="C25" s="69" t="n"/>
-      <c r="D25" s="69" t="n"/>
-      <c r="E25" s="69" t="n"/>
-      <c r="F25" s="69" t="n"/>
-      <c r="G25" s="69" t="n"/>
-      <c r="H25" s="69" t="n"/>
+    <row customHeight="1" ht="150" r="25" s="81" spans="1:43">
+      <c r="A25" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="62" t="s"/>
+      <c r="C25" s="62" t="n"/>
+      <c r="D25" s="62" t="n"/>
+      <c r="E25" s="62" t="n"/>
+      <c r="F25" s="62" t="n"/>
+      <c r="G25" s="62" t="n"/>
+      <c r="H25" s="62" t="n"/>
       <c r="I25" s="11" t="n"/>
     </row>
-    <row r="26" spans="1:43">
-      <c r="A26" s="68" t="n"/>
-      <c r="B26" s="2" t="n"/>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="6" t="n"/>
-      <c r="E26" s="7" t="n"/>
-      <c r="F26" s="8" t="n"/>
-      <c r="G26" s="9" t="n"/>
-      <c r="H26" s="8" t="n"/>
-    </row>
-    <row customHeight="1" ht="33.75" r="27" s="75" spans="1:43">
-      <c r="A27" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="71" t="n"/>
-      <c r="C27" s="35" t="n"/>
+    <row customHeight="1" ht="10.5" r="26" s="81" spans="1:43">
+      <c r="A26" s="75" t="n"/>
+      <c r="B26" s="62" t="n"/>
+      <c r="C26" s="62" t="n"/>
+      <c r="D26" s="62" t="n"/>
+      <c r="E26" s="62" t="n"/>
+      <c r="F26" s="62" t="n"/>
+      <c r="G26" s="62" t="n"/>
+      <c r="H26" s="62" t="n"/>
+      <c r="I26" s="11" t="n"/>
+    </row>
+    <row r="27" spans="1:43">
+      <c r="A27" s="68" t="n"/>
+      <c r="B27" s="2" t="n"/>
+      <c r="C27" s="2" t="n"/>
       <c r="D27" s="6" t="n"/>
       <c r="E27" s="7" t="n"/>
       <c r="F27" s="8" t="n"/>
       <c r="G27" s="9" t="n"/>
       <c r="H27" s="8" t="n"/>
     </row>
-    <row customHeight="1" ht="18.75" r="28" s="75" spans="1:43">
-      <c r="A28" s="68" t="n"/>
-      <c r="B28" s="2" t="n"/>
-      <c r="C28" s="2" t="n"/>
-      <c r="D28" s="18" t="n"/>
-      <c r="E28" s="19" t="n"/>
-      <c r="F28" s="20" t="n"/>
-      <c r="G28" s="21" t="n"/>
-      <c r="H28" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="29" s="75" spans="1:43">
-      <c r="A29" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="68" t="n"/>
-      <c r="C29" s="40" t="n"/>
-      <c r="D29" s="10" t="n"/>
-      <c r="E29" s="22" t="n"/>
-      <c r="F29" s="23" t="n"/>
-      <c r="G29" s="24" t="n"/>
-      <c r="H29" s="23" t="n"/>
-    </row>
-    <row r="30" spans="1:43">
-      <c r="A30" s="68" t="n"/>
+    <row customHeight="1" ht="33.75" r="28" s="81" spans="1:43">
+      <c r="A28" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="72" t="n"/>
+      <c r="C28" s="35" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="F28" s="8" t="n"/>
+      <c r="G28" s="9" t="n"/>
+      <c r="H28" s="8" t="n"/>
+    </row>
+    <row customHeight="1" ht="18.75" r="29" s="81" spans="1:43">
+      <c r="A29" s="68" t="n"/>
+      <c r="B29" s="2" t="n"/>
+      <c r="C29" s="2" t="n"/>
+      <c r="D29" s="18" t="n"/>
+      <c r="E29" s="19" t="n"/>
+      <c r="F29" s="20" t="n"/>
+      <c r="G29" s="21" t="n"/>
+      <c r="H29" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="30" s="81" spans="1:43">
+      <c r="A30" s="68" t="s">
+        <v>25</v>
+      </c>
       <c r="B30" s="68" t="n"/>
-      <c r="C30" s="68" t="n"/>
-      <c r="D30" s="25" t="n"/>
-      <c r="E30" s="26" t="n"/>
-      <c r="F30" s="27" t="n"/>
-      <c r="G30" s="28" t="n"/>
-      <c r="H30" s="27" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.25" r="31" s="75" spans="1:43">
-      <c r="A31" s="68" t="s">
-        <v>33</v>
-      </c>
+      <c r="C30" s="40" t="n"/>
+      <c r="D30" s="10" t="n"/>
+      <c r="E30" s="22" t="n"/>
+      <c r="F30" s="23" t="n"/>
+      <c r="G30" s="24" t="n"/>
+      <c r="H30" s="23" t="n"/>
+    </row>
+    <row r="31" spans="1:43">
+      <c r="A31" s="68" t="n"/>
       <c r="B31" s="68" t="n"/>
-      <c r="C31" s="40" t="n"/>
-      <c r="D31" s="10" t="n"/>
-      <c r="E31" s="22" t="n"/>
-      <c r="F31" s="23" t="n"/>
-      <c r="G31" s="24" t="n"/>
-      <c r="H31" s="23" t="n"/>
+      <c r="C31" s="68" t="n"/>
+      <c r="D31" s="25" t="n"/>
+      <c r="E31" s="26" t="n"/>
+      <c r="F31" s="27" t="n"/>
+      <c r="G31" s="28" t="n"/>
+      <c r="H31" s="27" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.25" r="32" s="81" spans="1:43">
+      <c r="A32" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="68" t="n"/>
+      <c r="C32" s="40" t="n"/>
+      <c r="D32" s="10" t="n"/>
+      <c r="E32" s="22" t="n"/>
+      <c r="F32" s="23" t="n"/>
+      <c r="G32" s="24" t="n"/>
+      <c r="H32" s="23" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="B12:B13"/>
@@ -1715,6 +1666,31 @@
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="C14:D15"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
   <pageSetup fitToHeight="0" orientation="portrait" scale="64"/>

--- a/static/files/KPI/xuezhimin/KPI.xlsx
+++ b/static/files/KPI/xuezhimin/KPI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>员工季度绩效评估表</t>
   </si>
@@ -22,7 +22,7 @@
     <t>员工：</t>
   </si>
   <si>
-    <t>薛智敏</t>
+    <t>李璟</t>
   </si>
   <si>
     <t>入职日期：</t>
@@ -31,6 +31,9 @@
     <t>上级主管：</t>
   </si>
   <si>
+    <t>华慧宁</t>
+  </si>
+  <si>
     <t>绩效周期：</t>
   </si>
   <si>
@@ -58,13 +61,41 @@
     <t>工作绩效</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>234</t>
+    <t xml:space="preserve">一、招聘工作：
+1.配合各部门要求制定招聘计划，优化公司的人才结构，开展招聘工作，完善招聘流程，维护、拓展招聘渠道
+2.员工入职、离职、合同签订、社保缴纳等事宜
+3.调查竞品公司的现况及组织架构
+</t>
+  </si>
+  <si>
+    <t>1.招聘周期的时间为45天之内
+2.员工劳动合同及社保公积金需在三日内完毕
+3.完成三个及以上主要竞品公司的组织架构及运营情况</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>二、OA系统的完善
+1.制定OA系统人员信息上线
+2.参与OA系统绩效管理的测试与上线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在一个月内必须完成OA 人员信息系统的上线
+</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>三、员工关系
+1.跟踪新入职员工及后续员工关怀</t>
+  </si>
+  <si>
+    <t>一个月内100%完成新员工的入职访谈</t>
+  </si>
+  <si>
+    <t>10%</t>
   </si>
   <si>
     <t>总分</t>
@@ -82,10 +113,22 @@
     <t>自我评价</t>
   </si>
   <si>
+    <t>招聘方面：由于行业及方向的原因，对于非技术的岗位，虽然能够及时的完成招聘任务，前期还是需要领导的帮助才能上手，某些看待问题的方式够客观和细致，还需领导指出。
+OA系统完善：能很好的与技术同事沟通完成人员信息上线
+员工关系;能与员工达成一片，但还需更努力挖掘更多员工的所想所求</t>
+  </si>
+  <si>
     <t>主管总体评价</t>
   </si>
   <si>
+    <t>招聘上手较快，能主动挖掘到各种互联网资讯；close职位的速度可以再加快；
+能够主动地融入员工圈子；希望能加强倾听，了解员工真正所需</t>
+  </si>
+  <si>
     <t>部门负责人总体评价</t>
+  </si>
+  <si>
+    <t>工作积极主动。仍需对岗位需求和行业深入了解。</t>
   </si>
   <si>
     <t>被评估人签字确认评估结果：</t>
@@ -1118,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="82" t="n">
-        <v>42142</v>
+        <v>42415</v>
       </c>
       <c r="G6" s="45" t="n"/>
       <c r="H6" s="14" t="n"/>
@@ -1163,15 +1206,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="15" t="n"/>
       <c r="D7" s="53" t="n"/>
       <c r="E7" s="53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" s="43" t="n"/>
       <c r="H7" s="16" t="n"/>
@@ -1259,23 +1302,23 @@
     <row customHeight="1" ht="52.5" r="9" s="81" spans="1:43">
       <c r="A9" s="75" t="n"/>
       <c r="B9" s="59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="50" t="n"/>
       <c r="E9" s="59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" s="75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" s="5" t="n"/>
       <c r="J9" s="29" t="n"/>
@@ -1315,26 +1358,26 @@
     </row>
     <row customHeight="1" ht="36" r="10" s="81" spans="1:43">
       <c r="A10" s="75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="70" t="n"/>
       <c r="E10" s="63" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" s="79" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G10" s="74" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H10" s="66" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I10" s="11" t="n"/>
       <c r="J10" s="38" t="n"/>
@@ -1386,23 +1429,23 @@
     <row customHeight="1" ht="43.5" r="12" s="81" spans="1:43">
       <c r="A12" s="75" t="n"/>
       <c r="B12" s="67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12" s="70" t="n"/>
       <c r="E12" s="63" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F12" s="64" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G12" s="65" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H12" s="64" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I12" s="11" t="n"/>
     </row>
@@ -1419,13 +1462,25 @@
     </row>
     <row customHeight="1" ht="43.5" r="14" s="81" spans="1:43">
       <c r="A14" s="75" t="n"/>
-      <c r="B14" s="67" t="n"/>
-      <c r="C14" s="70" t="n"/>
+      <c r="B14" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>22</v>
+      </c>
       <c r="D14" s="70" t="n"/>
-      <c r="E14" s="63" t="n"/>
-      <c r="F14" s="64" t="n"/>
-      <c r="G14" s="65" t="n"/>
-      <c r="H14" s="64" t="n"/>
+      <c r="E14" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="64" t="n">
+        <v>80</v>
+      </c>
+      <c r="G14" s="65" t="n">
+        <v>80</v>
+      </c>
+      <c r="H14" s="64" t="n">
+        <v>90</v>
+      </c>
       <c r="I14" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="15" s="81" spans="1:43">
@@ -1485,26 +1540,26 @@
     </row>
     <row customHeight="1" ht="30" r="20" s="81" spans="1:43">
       <c r="A20" s="80" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B20" s="67" t="n"/>
       <c r="C20" s="71" t="n"/>
       <c r="D20" s="71" t="n"/>
       <c r="E20" s="63" t="n"/>
       <c r="F20" s="64" t="n">
-        <v>0</v>
+        <v>86.5</v>
       </c>
       <c r="G20" s="65" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H20" s="64" t="n">
-        <v>0</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="I20" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="36.75" r="21" s="81" spans="1:43">
       <c r="A21" s="80" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B21" s="66" t="n"/>
       <c r="C21" s="66" t="n"/>
@@ -1513,13 +1568,13 @@
       <c r="F21" s="44" t="n"/>
       <c r="G21" s="79" t="n"/>
       <c r="H21" s="79" t="n">
-        <v>0</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="I21" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="36.75" r="22" s="81" spans="1:43">
       <c r="A22" s="75" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B22" s="66" t="n"/>
       <c r="C22" s="66" t="n"/>
@@ -1528,15 +1583,17 @@
       <c r="F22" s="44" t="n"/>
       <c r="G22" s="79" t="n"/>
       <c r="H22" s="79" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I22" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="150" r="23" s="81" spans="1:43">
       <c r="A23" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="62" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>29</v>
+      </c>
       <c r="C23" s="69" t="n"/>
       <c r="D23" s="69" t="n"/>
       <c r="E23" s="69" t="n"/>
@@ -1547,9 +1604,11 @@
     </row>
     <row customHeight="1" ht="150" r="24" s="81" spans="1:43">
       <c r="A24" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="62" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>31</v>
+      </c>
       <c r="C24" s="62" t="n"/>
       <c r="D24" s="62" t="n"/>
       <c r="E24" s="62" t="n"/>
@@ -1560,9 +1619,11 @@
     </row>
     <row customHeight="1" ht="150" r="25" s="81" spans="1:43">
       <c r="A25" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="62" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>33</v>
+      </c>
       <c r="C25" s="62" t="n"/>
       <c r="D25" s="62" t="n"/>
       <c r="E25" s="62" t="n"/>
@@ -1594,7 +1655,7 @@
     </row>
     <row customHeight="1" ht="33.75" r="28" s="81" spans="1:43">
       <c r="A28" s="72" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B28" s="72" t="n"/>
       <c r="C28" s="35" t="n"/>
@@ -1616,7 +1677,7 @@
     </row>
     <row customHeight="1" ht="15" r="30" s="81" spans="1:43">
       <c r="A30" s="68" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B30" s="68" t="n"/>
       <c r="C30" s="40" t="n"/>
@@ -1638,7 +1699,7 @@
     </row>
     <row customHeight="1" ht="20.25" r="32" s="81" spans="1:43">
       <c r="A32" s="68" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B32" s="68" t="n"/>
       <c r="C32" s="40" t="n"/>

--- a/static/files/KPI/xuezhimin/KPI.xlsx
+++ b/static/files/KPI/xuezhimin/KPI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>员工季度绩效评估表</t>
   </si>
@@ -22,7 +22,7 @@
     <t>员工：</t>
   </si>
   <si>
-    <t>李璟</t>
+    <t>riky</t>
   </si>
   <si>
     <t>入职日期：</t>
@@ -31,13 +31,13 @@
     <t>上级主管：</t>
   </si>
   <si>
-    <t>华慧宁</t>
+    <t>朱嘉佳</t>
   </si>
   <si>
     <t>绩效周期：</t>
   </si>
   <si>
-    <t>2016Q1</t>
+    <t>2019/Q1</t>
   </si>
   <si>
     <t>评估内容</t>
@@ -61,38 +61,37 @@
     <t>工作绩效</t>
   </si>
   <si>
-    <t xml:space="preserve">一、招聘工作：
-1.配合各部门要求制定招聘计划，优化公司的人才结构，开展招聘工作，完善招聘流程，维护、拓展招聘渠道
-2.员工入职、离职、合同签订、社保缴纳等事宜
-3.调查竞品公司的现况及组织架构
-</t>
-  </si>
-  <si>
-    <t>1.招聘周期的时间为45天之内
-2.员工劳动合同及社保公积金需在三日内完毕
-3.完成三个及以上主要竞品公司的组织架构及运营情况</t>
-  </si>
-  <si>
-    <t>70%</t>
-  </si>
-  <si>
-    <t>二、OA系统的完善
-1.制定OA系统人员信息上线
-2.参与OA系统绩效管理的测试与上线</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在一个月内必须完成OA 人员信息系统的上线
-</t>
-  </si>
-  <si>
-    <t>20%</t>
-  </si>
-  <si>
-    <t>三、员工关系
-1.跟踪新入职员工及后续员工关怀</t>
-  </si>
-  <si>
-    <t>一个月内100%完成新员工的入职访谈</t>
+    <t>主播直播间管理+运营</t>
+  </si>
+  <si>
+    <t>直播间流水</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>主播线上线下活动</t>
+  </si>
+  <si>
+    <t>活动效果及成果</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>艺人抖音视频策划、剪辑、人设运营</t>
+  </si>
+  <si>
+    <t>视频成稿数量+质量，抖音播放、点赞、互动</t>
+  </si>
+  <si>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>平台及工会对接</t>
+  </si>
+  <si>
+    <t>政策及合作效果</t>
   </si>
   <si>
     <t>10%</t>
@@ -107,28 +106,19 @@
     <t>绩效等级</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>自我评价</t>
   </si>
   <si>
-    <t>招聘方面：由于行业及方向的原因，对于非技术的岗位，虽然能够及时的完成招聘任务，前期还是需要领导的帮助才能上手，某些看待问题的方式够客观和细致，还需领导指出。
-OA系统完善：能很好的与技术同事沟通完成人员信息上线
-员工关系;能与员工达成一片，但还需更努力挖掘更多员工的所想所求</t>
+    <t>本季度策划、打榜让多名主播通过参加网易云音乐活动，流水及人气有大幅提升；抖音王景春、自签艺人等多系列视频稳步进行中，在视频定位、策划、剪辑后期等有诸多内容产出，面对紧急热点，积极配合宣发，取得不错的效果。</t>
   </si>
   <si>
     <t>主管总体评价</t>
   </si>
   <si>
-    <t>招聘上手较快，能主动挖掘到各种互联网资讯；close职位的速度可以再加快；
-能够主动地融入员工圈子；希望能加强倾听，了解员工真正所需</t>
+    <t>责任心强，稳扎稳打，能配合公司项目进度加班定时完成工作。艺人招募渠道需加强，艺人的管理方面更有自信刚柔并济为佳。</t>
   </si>
   <si>
     <t>部门负责人总体评价</t>
-  </si>
-  <si>
-    <t>工作积极主动。仍需对岗位需求和行业深入了解。</t>
   </si>
   <si>
     <t>被评估人签字确认评估结果：</t>
@@ -1161,7 +1151,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="82" t="n">
-        <v>42415</v>
+        <v>43368</v>
       </c>
       <c r="G6" s="45" t="n"/>
       <c r="H6" s="14" t="n"/>
@@ -1371,13 +1361,13 @@
         <v>17</v>
       </c>
       <c r="F10" s="79" t="n">
+        <v>92</v>
+      </c>
+      <c r="G10" s="74" t="n">
         <v>85</v>
       </c>
-      <c r="G10" s="74" t="n">
-        <v>80</v>
-      </c>
       <c r="H10" s="66" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11" t="n"/>
       <c r="J10" s="38" t="n"/>
@@ -1439,13 +1429,13 @@
         <v>20</v>
       </c>
       <c r="F12" s="64" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G12" s="65" t="n">
         <v>90</v>
       </c>
       <c r="H12" s="64" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11" t="n"/>
     </row>
@@ -1473,13 +1463,13 @@
         <v>23</v>
       </c>
       <c r="F14" s="64" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G14" s="65" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H14" s="64" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11" t="n"/>
     </row>
@@ -1496,13 +1486,25 @@
     </row>
     <row customHeight="1" ht="43.5" r="16" s="81" spans="1:43">
       <c r="A16" s="75" t="n"/>
-      <c r="B16" s="67" t="n"/>
-      <c r="C16" s="70" t="n"/>
+      <c r="B16" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="70" t="n"/>
-      <c r="E16" s="63" t="n"/>
-      <c r="F16" s="64" t="n"/>
-      <c r="G16" s="65" t="n"/>
-      <c r="H16" s="64" t="n"/>
+      <c r="E16" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="64" t="n">
+        <v>89</v>
+      </c>
+      <c r="G16" s="65" t="n">
+        <v>85</v>
+      </c>
+      <c r="H16" s="64" t="n">
+        <v>0</v>
+      </c>
       <c r="I16" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="43.5" r="17" s="81" spans="1:43">
@@ -1540,26 +1542,26 @@
     </row>
     <row customHeight="1" ht="30" r="20" s="81" spans="1:43">
       <c r="A20" s="80" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20" s="67" t="n"/>
       <c r="C20" s="71" t="n"/>
       <c r="D20" s="71" t="n"/>
       <c r="E20" s="63" t="n"/>
       <c r="F20" s="64" t="n">
-        <v>86.5</v>
+        <v>90.75</v>
       </c>
       <c r="G20" s="65" t="n">
-        <v>82</v>
+        <v>85.75</v>
       </c>
       <c r="H20" s="64" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="36.75" r="21" s="81" spans="1:43">
       <c r="A21" s="80" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21" s="66" t="n"/>
       <c r="C21" s="66" t="n"/>
@@ -1568,13 +1570,13 @@
       <c r="F21" s="44" t="n"/>
       <c r="G21" s="79" t="n"/>
       <c r="H21" s="79" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="36.75" r="22" s="81" spans="1:43">
       <c r="A22" s="75" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22" s="66" t="n"/>
       <c r="C22" s="66" t="n"/>
@@ -1582,17 +1584,15 @@
       <c r="E22" s="44" t="n"/>
       <c r="F22" s="44" t="n"/>
       <c r="G22" s="79" t="n"/>
-      <c r="H22" s="79" t="s">
-        <v>27</v>
-      </c>
+      <c r="H22" s="79" t="s"/>
       <c r="I22" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="150" r="23" s="81" spans="1:43">
       <c r="A23" s="75" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" s="69" t="n"/>
       <c r="D23" s="69" t="n"/>
@@ -1604,10 +1604,10 @@
     </row>
     <row customHeight="1" ht="150" r="24" s="81" spans="1:43">
       <c r="A24" s="75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C24" s="62" t="n"/>
       <c r="D24" s="62" t="n"/>
@@ -1619,11 +1619,9 @@
     </row>
     <row customHeight="1" ht="150" r="25" s="81" spans="1:43">
       <c r="A25" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="62" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B25" s="62" t="s"/>
       <c r="C25" s="62" t="n"/>
       <c r="D25" s="62" t="n"/>
       <c r="E25" s="62" t="n"/>
@@ -1655,7 +1653,7 @@
     </row>
     <row customHeight="1" ht="33.75" r="28" s="81" spans="1:43">
       <c r="A28" s="72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="72" t="n"/>
       <c r="C28" s="35" t="n"/>
@@ -1677,7 +1675,7 @@
     </row>
     <row customHeight="1" ht="15" r="30" s="81" spans="1:43">
       <c r="A30" s="68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="68" t="n"/>
       <c r="C30" s="40" t="n"/>
@@ -1699,7 +1697,7 @@
     </row>
     <row customHeight="1" ht="20.25" r="32" s="81" spans="1:43">
       <c r="A32" s="68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="68" t="n"/>
       <c r="C32" s="40" t="n"/>

--- a/static/files/KPI/xuezhimin/KPI.xlsx
+++ b/static/files/KPI/xuezhimin/KPI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>员工季度绩效评估表</t>
   </si>
@@ -22,7 +22,7 @@
     <t>员工：</t>
   </si>
   <si>
-    <t>riky</t>
+    <t>朱圣琪</t>
   </si>
   <si>
     <t>入职日期：</t>
@@ -37,7 +37,7 @@
     <t>绩效周期：</t>
   </si>
   <si>
-    <t>2019/Q1</t>
+    <t>2019/05</t>
   </si>
   <si>
     <t>评估内容</t>
@@ -61,42 +61,33 @@
     <t>工作绩效</t>
   </si>
   <si>
-    <t>主播直播间管理+运营</t>
-  </si>
-  <si>
-    <t>直播间流水</t>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
-    <t>主播线上线下活动</t>
-  </si>
-  <si>
-    <t>活动效果及成果</t>
-  </si>
-  <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>艺人抖音视频策划、剪辑、人设运营</t>
-  </si>
-  <si>
-    <t>视频成稿数量+质量，抖音播放、点赞、互动</t>
+    <t>短视频拍摄内容运营</t>
+  </si>
+  <si>
+    <t>播放量+赞评量+涨粉量</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>电商变现</t>
+  </si>
+  <si>
+    <t>盈亏</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>短视频招募达人</t>
+  </si>
+  <si>
+    <t>合格艺人</t>
   </si>
   <si>
     <t>35%</t>
   </si>
   <si>
-    <t>平台及工会对接</t>
-  </si>
-  <si>
-    <t>政策及合作效果</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
     <t>总分</t>
   </si>
   <si>
@@ -109,13 +100,13 @@
     <t>自我评价</t>
   </si>
   <si>
-    <t>本季度策划、打榜让多名主播通过参加网易云音乐活动，流水及人气有大幅提升；抖音王景春、自签艺人等多系列视频稳步进行中，在视频定位、策划、剪辑后期等有诸多内容产出，面对紧急热点，积极配合宣发，取得不错的效果。</t>
+    <t>现阶段在与艺人之间沟通其问题上基本已妥善处理，在不断提升自我网感这一块比之前要清楚很多，与各部门之间的统筹逐步完善掌握，尽快建立起一个顺畅的流水线工作，谢谢！</t>
   </si>
   <si>
     <t>主管总体评价</t>
   </si>
   <si>
-    <t>责任心强，稳扎稳打，能配合公司项目进度加班定时完成工作。艺人招募渠道需加强，艺人的管理方面更有自信刚柔并济为佳。</t>
+    <t>提高自己的管理能力，细致协调统筹。</t>
   </si>
   <si>
     <t>部门负责人总体评价</t>
@@ -1151,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="82" t="n">
-        <v>43368</v>
+        <v>43514</v>
       </c>
       <c r="G6" s="45" t="n"/>
       <c r="H6" s="14" t="n"/>
@@ -1361,7 +1352,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="79" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G10" s="74" t="n">
         <v>85</v>
@@ -1429,10 +1420,10 @@
         <v>20</v>
       </c>
       <c r="F12" s="64" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G12" s="65" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H12" s="64" t="n">
         <v>0</v>
@@ -1463,7 +1454,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="64" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G14" s="65" t="n">
         <v>85</v>
@@ -1486,25 +1477,13 @@
     </row>
     <row customHeight="1" ht="43.5" r="16" s="81" spans="1:43">
       <c r="A16" s="75" t="n"/>
-      <c r="B16" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>25</v>
-      </c>
+      <c r="B16" s="67" t="n"/>
+      <c r="C16" s="70" t="n"/>
       <c r="D16" s="70" t="n"/>
-      <c r="E16" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="64" t="n">
-        <v>89</v>
-      </c>
-      <c r="G16" s="65" t="n">
-        <v>85</v>
-      </c>
-      <c r="H16" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="E16" s="63" t="n"/>
+      <c r="F16" s="64" t="n"/>
+      <c r="G16" s="65" t="n"/>
+      <c r="H16" s="64" t="n"/>
       <c r="I16" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="43.5" r="17" s="81" spans="1:43">
@@ -1542,17 +1521,17 @@
     </row>
     <row customHeight="1" ht="30" r="20" s="81" spans="1:43">
       <c r="A20" s="80" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" s="67" t="n"/>
       <c r="C20" s="71" t="n"/>
       <c r="D20" s="71" t="n"/>
       <c r="E20" s="63" t="n"/>
       <c r="F20" s="64" t="n">
-        <v>90.75</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="G20" s="65" t="n">
-        <v>85.75</v>
+        <v>85</v>
       </c>
       <c r="H20" s="64" t="n">
         <v>0</v>
@@ -1561,7 +1540,7 @@
     </row>
     <row customHeight="1" ht="36.75" r="21" s="81" spans="1:43">
       <c r="A21" s="80" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" s="66" t="n"/>
       <c r="C21" s="66" t="n"/>
@@ -1576,7 +1555,7 @@
     </row>
     <row customHeight="1" ht="36.75" r="22" s="81" spans="1:43">
       <c r="A22" s="75" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B22" s="66" t="n"/>
       <c r="C22" s="66" t="n"/>
@@ -1589,10 +1568,10 @@
     </row>
     <row customHeight="1" ht="150" r="23" s="81" spans="1:43">
       <c r="A23" s="75" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="69" t="n"/>
       <c r="D23" s="69" t="n"/>
@@ -1604,10 +1583,10 @@
     </row>
     <row customHeight="1" ht="150" r="24" s="81" spans="1:43">
       <c r="A24" s="75" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="62" t="n"/>
       <c r="D24" s="62" t="n"/>
@@ -1619,7 +1598,7 @@
     </row>
     <row customHeight="1" ht="150" r="25" s="81" spans="1:43">
       <c r="A25" s="75" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25" s="62" t="s"/>
       <c r="C25" s="62" t="n"/>
@@ -1653,7 +1632,7 @@
     </row>
     <row customHeight="1" ht="33.75" r="28" s="81" spans="1:43">
       <c r="A28" s="72" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B28" s="72" t="n"/>
       <c r="C28" s="35" t="n"/>
@@ -1675,7 +1654,7 @@
     </row>
     <row customHeight="1" ht="15" r="30" s="81" spans="1:43">
       <c r="A30" s="68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B30" s="68" t="n"/>
       <c r="C30" s="40" t="n"/>
@@ -1697,7 +1676,7 @@
     </row>
     <row customHeight="1" ht="20.25" r="32" s="81" spans="1:43">
       <c r="A32" s="68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B32" s="68" t="n"/>
       <c r="C32" s="40" t="n"/>
